--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_no_assign_models_results_Date_threshold_33_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_no_assign_models_results_Date_threshold_33_1_replicas.xlsx
@@ -88,34 +88,37 @@
     <t>0.0</t>
   </si>
   <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
     <t>0.996+/-0.001</t>
   </si>
   <si>
-    <t>0.794+/-0.0</t>
-  </si>
-  <si>
-    <t>0.787</t>
+    <t>0.791+/-0.0</t>
+  </si>
+  <si>
+    <t>0.789</t>
   </si>
   <si>
     <t>0.992+/-0.008</t>
   </si>
   <si>
-    <t>0.478+/-0.073</t>
-  </si>
-  <si>
-    <t>0.422</t>
+    <t>0.453+/-0.062</t>
+  </si>
+  <si>
+    <t>0.43</t>
   </si>
   <si>
     <t>0.987+/-0.013</t>
   </si>
   <si>
-    <t>0.166+/-0.028</t>
-  </si>
-  <si>
-    <t>0.152</t>
-  </si>
-  <si>
-    <t>0.002+/-0.001</t>
+    <t>0.159+/-0.025</t>
+  </si>
+  <si>
+    <t>0.147</t>
+  </si>
+  <si>
+    <t>0.004+/-0.001</t>
   </si>
   <si>
     <t>0.803+/-0.001</t>
@@ -124,10 +127,10 @@
     <t>0.803+/-0.0</t>
   </si>
   <si>
-    <t>0.571+/-0.014</t>
-  </si>
-  <si>
-    <t>0.567+/-0.111</t>
+    <t>0.569+/-0.014</t>
+  </si>
+  <si>
+    <t>0.568+/-0.109</t>
   </si>
   <si>
     <t>0.488</t>
@@ -136,856 +139,853 @@
     <t>0.09+/-0.004</t>
   </si>
   <si>
-    <t>0.087+/-0.031</t>
+    <t>0.088+/-0.031</t>
   </si>
   <si>
     <t>0.056</t>
   </si>
   <si>
-    <t>0.189+/-0.038</t>
-  </si>
-  <si>
-    <t>0.597+/-0.019</t>
-  </si>
-  <si>
-    <t>0.597+/-0.0</t>
+    <t>0.292+/-0.042</t>
+  </si>
+  <si>
+    <t>0.602+/-0.02</t>
+  </si>
+  <si>
+    <t>0.601+/-0.0</t>
+  </si>
+  <si>
+    <t>0.587</t>
+  </si>
+  <si>
+    <t>0.278+/-0.007</t>
+  </si>
+  <si>
+    <t>0.276+/-0.015</t>
+  </si>
+  <si>
+    <t>0.262</t>
+  </si>
+  <si>
+    <t>0.61+/-0.028</t>
+  </si>
+  <si>
+    <t>0.603+/-0.038</t>
   </si>
   <si>
     <t>0.576</t>
   </si>
   <si>
-    <t>0.276+/-0.006</t>
-  </si>
-  <si>
-    <t>0.275+/-0.015</t>
+    <t>0.008+/-0.001</t>
+  </si>
+  <si>
+    <t>0.682+/-0.004</t>
+  </si>
+  <si>
+    <t>0.679+/-0.0</t>
+  </si>
+  <si>
+    <t>0.676</t>
+  </si>
+  <si>
+    <t>0.297+/-0.002</t>
+  </si>
+  <si>
+    <t>0.293+/-0.02</t>
+  </si>
+  <si>
+    <t>0.276</t>
+  </si>
+  <si>
+    <t>0.425+/-0.012</t>
+  </si>
+  <si>
+    <t>0.421+/-0.034</t>
+  </si>
+  <si>
+    <t>0.373</t>
+  </si>
+  <si>
+    <t>0.01+/-0.002</t>
+  </si>
+  <si>
+    <t>0.847+/-0.007</t>
+  </si>
+  <si>
+    <t>0.786+/-0.0</t>
+  </si>
+  <si>
+    <t>0.766</t>
+  </si>
+  <si>
+    <t>0.72+/-0.044</t>
+  </si>
+  <si>
+    <t>0.448+/-0.047</t>
+  </si>
+  <si>
+    <t>0.376</t>
+  </si>
+  <si>
+    <t>0.394+/-0.029</t>
+  </si>
+  <si>
+    <t>0.24+/-0.029</t>
+  </si>
+  <si>
+    <t>0.245</t>
+  </si>
+  <si>
+    <t>5.218+/-1.253</t>
+  </si>
+  <si>
+    <t>0.861+/-0.005</t>
+  </si>
+  <si>
+    <t>0.782+/-0.0</t>
+  </si>
+  <si>
+    <t>0.784</t>
+  </si>
+  <si>
+    <t>0.842+/-0.021</t>
+  </si>
+  <si>
+    <t>0.416+/-0.051</t>
+  </si>
+  <si>
+    <t>0.414</t>
+  </si>
+  <si>
+    <t>0.385+/-0.032</t>
+  </si>
+  <si>
+    <t>0.187+/-0.027</t>
+  </si>
+  <si>
+    <t>0.173</t>
+  </si>
+  <si>
+    <t>0.092+/-0.006</t>
+  </si>
+  <si>
+    <t>0.856+/-0.004</t>
+  </si>
+  <si>
+    <t>0.783+/-0.0</t>
+  </si>
+  <si>
+    <t>0.768</t>
+  </si>
+  <si>
+    <t>0.82+/-0.03</t>
+  </si>
+  <si>
+    <t>0.408+/-0.072</t>
+  </si>
+  <si>
+    <t>0.318</t>
+  </si>
+  <si>
+    <t>0.367+/-0.036</t>
+  </si>
+  <si>
+    <t>0.183+/-0.05</t>
+  </si>
+  <si>
+    <t>0.131</t>
+  </si>
+  <si>
+    <t>0.11+/-0.004</t>
+  </si>
+  <si>
+    <t>0.812+/-0.001</t>
+  </si>
+  <si>
+    <t>0.805+/-0.0</t>
+  </si>
+  <si>
+    <t>0.707+/-0.01</t>
+  </si>
+  <si>
+    <t>0.6+/-0.1</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.112+/-0.006</t>
+  </si>
+  <si>
+    <t>0.09+/-0.036</t>
+  </si>
+  <si>
+    <t>0.061</t>
+  </si>
+  <si>
+    <t>13.866+/-0.372</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.845+/-0.0</t>
+  </si>
+  <si>
+    <t>0.847</t>
+  </si>
+  <si>
+    <t>0.991+/-0.011</t>
+  </si>
+  <si>
+    <t>0.429+/-0.094</t>
+  </si>
+  <si>
+    <t>0.453</t>
+  </si>
+  <si>
+    <t>0.98+/-0.016</t>
+  </si>
+  <si>
+    <t>0.093+/-0.021</t>
+  </si>
+  <si>
+    <t>0.086</t>
+  </si>
+  <si>
+    <t>0.003+/-0.0</t>
+  </si>
+  <si>
+    <t>0.851+/-0.001</t>
+  </si>
+  <si>
+    <t>0.844</t>
+  </si>
+  <si>
+    <t>0.527+/-0.02</t>
+  </si>
+  <si>
+    <t>0.504+/-0.146</t>
+  </si>
+  <si>
+    <t>0.296</t>
+  </si>
+  <si>
+    <t>0.07+/-0.007</t>
+  </si>
+  <si>
+    <t>0.067+/-0.016</t>
+  </si>
+  <si>
+    <t>0.029</t>
+  </si>
+  <si>
+    <t>0.253+/-0.051</t>
+  </si>
+  <si>
+    <t>0.701+/-0.008</t>
+  </si>
+  <si>
+    <t>0.701+/-0.0</t>
+  </si>
+  <si>
+    <t>0.687</t>
+  </si>
+  <si>
+    <t>0.253+/-0.004</t>
+  </si>
+  <si>
+    <t>0.253+/-0.024</t>
+  </si>
+  <si>
+    <t>0.237</t>
+  </si>
+  <si>
+    <t>0.508+/-0.016</t>
+  </si>
+  <si>
+    <t>0.506+/-0.034</t>
+  </si>
+  <si>
+    <t>0.491</t>
+  </si>
+  <si>
+    <t>0.006+/-0.001</t>
+  </si>
+  <si>
+    <t>0.74+/-0.002</t>
+  </si>
+  <si>
+    <t>0.739+/-0.0</t>
+  </si>
+  <si>
+    <t>0.732</t>
+  </si>
+  <si>
+    <t>0.254+/-0.003</t>
+  </si>
+  <si>
+    <t>0.252+/-0.02</t>
+  </si>
+  <si>
+    <t>0.234</t>
+  </si>
+  <si>
+    <t>0.378+/-0.008</t>
+  </si>
+  <si>
+    <t>0.374+/-0.043</t>
+  </si>
+  <si>
+    <t>0.348</t>
+  </si>
+  <si>
+    <t>0.016+/-0.024</t>
+  </si>
+  <si>
+    <t>0.874+/-0.006</t>
+  </si>
+  <si>
+    <t>0.831+/-0.0</t>
+  </si>
+  <si>
+    <t>0.824</t>
+  </si>
+  <si>
+    <t>0.694+/-0.055</t>
+  </si>
+  <si>
+    <t>0.366+/-0.038</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>0.305+/-0.079</t>
+  </si>
+  <si>
+    <t>0.168+/-0.062</t>
+  </si>
+  <si>
+    <t>0.183</t>
+  </si>
+  <si>
+    <t>4.099+/-0.978</t>
+  </si>
+  <si>
+    <t>0.898+/-0.002</t>
+  </si>
+  <si>
+    <t>0.832+/-0.0</t>
+  </si>
+  <si>
+    <t>0.858+/-0.015</t>
+  </si>
+  <si>
+    <t>0.375+/-0.061</t>
+  </si>
+  <si>
+    <t>0.301</t>
+  </si>
+  <si>
+    <t>0.38+/-0.018</t>
+  </si>
+  <si>
+    <t>0.173+/-0.028</t>
+  </si>
+  <si>
+    <t>0.133</t>
+  </si>
+  <si>
+    <t>0.093+/-0.004</t>
+  </si>
+  <si>
+    <t>0.893+/-0.004</t>
+  </si>
+  <si>
+    <t>0.834+/-0.0</t>
+  </si>
+  <si>
+    <t>0.813</t>
+  </si>
+  <si>
+    <t>0.858+/-0.027</t>
+  </si>
+  <si>
+    <t>0.386+/-0.105</t>
+  </si>
+  <si>
+    <t>0.277</t>
+  </si>
+  <si>
+    <t>0.348+/-0.037</t>
+  </si>
+  <si>
+    <t>0.161+/-0.028</t>
+  </si>
+  <si>
+    <t>0.154</t>
+  </si>
+  <si>
+    <t>0.129+/-0.007</t>
+  </si>
+  <si>
+    <t>0.856+/-0.001</t>
+  </si>
+  <si>
+    <t>0.852+/-0.0</t>
+  </si>
+  <si>
+    <t>0.684+/-0.028</t>
+  </si>
+  <si>
+    <t>0.544+/-0.169</t>
+  </si>
+  <si>
+    <t>0.078+/-0.012</t>
+  </si>
+  <si>
+    <t>0.062+/-0.023</t>
+  </si>
+  <si>
+    <t>0.047</t>
+  </si>
+  <si>
+    <t>11.574+/-1.483</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.999+/-0.0</t>
+  </si>
+  <si>
+    <t>0.699+/-0.0</t>
+  </si>
+  <si>
+    <t>0.704</t>
+  </si>
+  <si>
+    <t>1.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.381+/-0.038</t>
+  </si>
+  <si>
+    <t>0.399</t>
+  </si>
+  <si>
+    <t>0.139+/-0.018</t>
+  </si>
+  <si>
+    <t>0.138</t>
+  </si>
+  <si>
+    <t>0.727+/-0.001</t>
+  </si>
+  <si>
+    <t>0.726+/-0.0</t>
+  </si>
+  <si>
+    <t>0.725</t>
+  </si>
+  <si>
+    <t>0.581+/-0.01</t>
+  </si>
+  <si>
+    <t>0.56+/-0.084</t>
+  </si>
+  <si>
+    <t>0.548</t>
+  </si>
+  <si>
+    <t>0.052+/-0.003</t>
+  </si>
+  <si>
+    <t>0.05+/-0.007</t>
+  </si>
+  <si>
+    <t>0.045</t>
+  </si>
+  <si>
+    <t>0.133+/-0.026</t>
+  </si>
+  <si>
+    <t>0.681+/-0.002</t>
+  </si>
+  <si>
+    <t>0.681+/-0.0</t>
+  </si>
+  <si>
+    <t>0.677</t>
+  </si>
+  <si>
+    <t>0.387+/-0.004</t>
+  </si>
+  <si>
+    <t>0.385+/-0.027</t>
+  </si>
+  <si>
+    <t>0.378</t>
+  </si>
+  <si>
+    <t>0.258+/-0.006</t>
+  </si>
+  <si>
+    <t>0.255+/-0.025</t>
+  </si>
+  <si>
+    <t>0.258</t>
+  </si>
+  <si>
+    <t>0.635+/-0.001</t>
+  </si>
+  <si>
+    <t>0.635+/-0.0</t>
+  </si>
+  <si>
+    <t>0.639</t>
+  </si>
+  <si>
+    <t>0.346+/-0.001</t>
+  </si>
+  <si>
+    <t>0.347+/-0.02</t>
+  </si>
+  <si>
+    <t>0.356</t>
+  </si>
+  <si>
+    <t>0.355+/-0.006</t>
+  </si>
+  <si>
+    <t>0.356+/-0.018</t>
+  </si>
+  <si>
+    <t>0.007+/-0.001</t>
+  </si>
+  <si>
+    <t>0.772+/-0.004</t>
+  </si>
+  <si>
+    <t>0.697+/-0.0</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.709+/-0.048</t>
+  </si>
+  <si>
+    <t>0.386+/-0.035</t>
+  </si>
+  <si>
+    <t>0.393</t>
+  </si>
+  <si>
+    <t>0.31+/-0.05</t>
+  </si>
+  <si>
+    <t>0.161+/-0.041</t>
+  </si>
+  <si>
+    <t>0.153</t>
+  </si>
+  <si>
+    <t>4.204+/-0.82</t>
+  </si>
+  <si>
+    <t>0.803+/-0.005</t>
+  </si>
+  <si>
+    <t>0.685+/-0.0</t>
+  </si>
+  <si>
+    <t>0.698</t>
+  </si>
+  <si>
+    <t>0.853+/-0.031</t>
+  </si>
+  <si>
+    <t>0.341+/-0.06</t>
+  </si>
+  <si>
+    <t>0.374</t>
+  </si>
+  <si>
+    <t>0.35+/-0.025</t>
+  </si>
+  <si>
+    <t>0.148+/-0.033</t>
+  </si>
+  <si>
+    <t>0.136</t>
+  </si>
+  <si>
+    <t>0.074+/-0.009</t>
+  </si>
+  <si>
+    <t>0.786+/-0.006</t>
+  </si>
+  <si>
+    <t>0.702+/-0.0</t>
+  </si>
+  <si>
+    <t>0.683</t>
+  </si>
+  <si>
+    <t>0.83+/-0.041</t>
+  </si>
+  <si>
+    <t>0.383+/-0.077</t>
+  </si>
+  <si>
+    <t>0.311</t>
+  </si>
+  <si>
+    <t>0.288+/-0.014</t>
+  </si>
+  <si>
+    <t>0.132+/-0.041</t>
+  </si>
+  <si>
+    <t>0.118</t>
+  </si>
+  <si>
+    <t>0.091+/-0.005</t>
+  </si>
+  <si>
+    <t>0.738+/-0.001</t>
+  </si>
+  <si>
+    <t>0.725+/-0.0</t>
+  </si>
+  <si>
+    <t>0.821+/-0.013</t>
+  </si>
+  <si>
+    <t>0.569+/-0.13</t>
+  </si>
+  <si>
+    <t>0.068+/-0.005</t>
+  </si>
+  <si>
+    <t>0.039+/-0.012</t>
+  </si>
+  <si>
+    <t>0.031</t>
+  </si>
+  <si>
+    <t>16.401+/-0.776</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.667+/-0.0</t>
+  </si>
+  <si>
+    <t>0.673</t>
+  </si>
+  <si>
+    <t>0.398+/-0.035</t>
+  </si>
+  <si>
+    <t>0.413</t>
+  </si>
+  <si>
+    <t>0.996+/-0.0</t>
+  </si>
+  <si>
+    <t>0.158+/-0.014</t>
+  </si>
+  <si>
+    <t>0.148</t>
+  </si>
+  <si>
+    <t>0.695+/-0.0</t>
+  </si>
+  <si>
+    <t>0.696</t>
+  </si>
+  <si>
+    <t>0.618+/-0.007</t>
+  </si>
+  <si>
+    <t>0.594+/-0.135</t>
+  </si>
+  <si>
+    <t>0.581</t>
+  </si>
+  <si>
+    <t>0.041+/-0.003</t>
+  </si>
+  <si>
+    <t>0.038+/-0.014</t>
+  </si>
+  <si>
+    <t>0.044</t>
+  </si>
+  <si>
+    <t>0.146+/-0.036</t>
+  </si>
+  <si>
+    <t>0.649+/-0.003</t>
+  </si>
+  <si>
+    <t>0.647+/-0.0</t>
+  </si>
+  <si>
+    <t>0.649</t>
+  </si>
+  <si>
+    <t>0.383+/-0.031</t>
+  </si>
+  <si>
+    <t>0.394</t>
+  </si>
+  <si>
+    <t>0.239+/-0.007</t>
+  </si>
+  <si>
+    <t>0.237+/-0.024</t>
   </si>
   <si>
     <t>0.255</t>
   </si>
   <si>
-    <t>0.617+/-0.028</t>
-  </si>
-  <si>
-    <t>0.611+/-0.041</t>
-  </si>
-  <si>
-    <t>0.573</t>
-  </si>
-  <si>
-    <t>0.004+/-0.001</t>
-  </si>
-  <si>
-    <t>0.681+/-0.003</t>
-  </si>
-  <si>
-    <t>0.677+/-0.0</t>
-  </si>
-  <si>
-    <t>0.674</t>
-  </si>
-  <si>
-    <t>0.297+/-0.002</t>
-  </si>
-  <si>
-    <t>0.291+/-0.018</t>
-  </si>
-  <si>
-    <t>0.272</t>
-  </si>
-  <si>
-    <t>0.427+/-0.01</t>
-  </si>
-  <si>
-    <t>0.422+/-0.034</t>
-  </si>
-  <si>
-    <t>0.368</t>
-  </si>
-  <si>
-    <t>0.006+/-0.001</t>
-  </si>
-  <si>
-    <t>0.845+/-0.006</t>
-  </si>
-  <si>
-    <t>0.784+/-0.0</t>
-  </si>
-  <si>
-    <t>0.763</t>
-  </si>
-  <si>
-    <t>0.729+/-0.063</t>
-  </si>
-  <si>
-    <t>0.433+/-0.057</t>
-  </si>
-  <si>
-    <t>0.386</t>
-  </si>
-  <si>
-    <t>0.383+/-0.081</t>
-  </si>
-  <si>
-    <t>0.227+/-0.07</t>
-  </si>
-  <si>
-    <t>0.293</t>
-  </si>
-  <si>
-    <t>2.842+/-0.657</t>
-  </si>
-  <si>
-    <t>0.861+/-0.005</t>
-  </si>
-  <si>
-    <t>0.783+/-0.0</t>
-  </si>
-  <si>
-    <t>0.786</t>
-  </si>
-  <si>
-    <t>0.845+/-0.022</t>
-  </si>
-  <si>
-    <t>0.418+/-0.053</t>
-  </si>
-  <si>
-    <t>0.425</t>
-  </si>
-  <si>
-    <t>0.382+/-0.032</t>
-  </si>
-  <si>
-    <t>0.186+/-0.03</t>
-  </si>
-  <si>
-    <t>0.173</t>
-  </si>
-  <si>
-    <t>0.068+/-0.006</t>
-  </si>
-  <si>
-    <t>0.856+/-0.004</t>
-  </si>
-  <si>
-    <t>0.769</t>
-  </si>
-  <si>
-    <t>0.821+/-0.027</t>
-  </si>
-  <si>
-    <t>0.411+/-0.081</t>
-  </si>
-  <si>
-    <t>0.341</t>
-  </si>
-  <si>
-    <t>0.362+/-0.029</t>
-  </si>
-  <si>
-    <t>0.181+/-0.05</t>
-  </si>
-  <si>
-    <t>0.157</t>
-  </si>
-  <si>
-    <t>0.082+/-0.004</t>
-  </si>
-  <si>
-    <t>0.812+/-0.001</t>
-  </si>
-  <si>
-    <t>0.804+/-0.0</t>
-  </si>
-  <si>
-    <t>0.799</t>
-  </si>
-  <si>
-    <t>0.711+/-0.011</t>
-  </si>
-  <si>
-    <t>0.595+/-0.107</t>
-  </si>
-  <si>
-    <t>0.511</t>
-  </si>
-  <si>
-    <t>0.111+/-0.006</t>
-  </si>
-  <si>
-    <t>0.087+/-0.038</t>
-  </si>
-  <si>
-    <t>0.061</t>
-  </si>
-  <si>
-    <t>10.453+/-0.852</t>
-  </si>
-  <si>
-    <t>0.85+/-0.0</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.848+/-0.0</t>
-  </si>
-  <si>
-    <t>0.846</t>
-  </si>
-  <si>
-    <t>0.988+/-0.012</t>
-  </si>
-  <si>
-    <t>0.475+/-0.103</t>
-  </si>
-  <si>
-    <t>0.431</t>
-  </si>
-  <si>
-    <t>0.983+/-0.017</t>
-  </si>
-  <si>
-    <t>0.124+/-0.037</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>0.002+/-0.0</t>
-  </si>
-  <si>
-    <t>0.852+/-0.001</t>
-  </si>
-  <si>
-    <t>0.844</t>
-  </si>
-  <si>
-    <t>0.537+/-0.018</t>
-  </si>
-  <si>
-    <t>0.499+/-0.154</t>
-  </si>
-  <si>
-    <t>0.286</t>
-  </si>
-  <si>
-    <t>0.073+/-0.007</t>
-  </si>
-  <si>
-    <t>0.07+/-0.021</t>
-  </si>
-  <si>
-    <t>0.029</t>
-  </si>
-  <si>
-    <t>0.236+/-0.036</t>
-  </si>
-  <si>
-    <t>0.687+/-0.009</t>
-  </si>
-  <si>
-    <t>0.688+/-0.0</t>
+    <t>0.614+/-0.001</t>
+  </si>
+  <si>
+    <t>0.614+/-0.0</t>
+  </si>
+  <si>
+    <t>0.617</t>
+  </si>
+  <si>
+    <t>0.368+/-0.002</t>
+  </si>
+  <si>
+    <t>0.366+/-0.018</t>
+  </si>
+  <si>
+    <t>0.372</t>
+  </si>
+  <si>
+    <t>0.349+/-0.006</t>
+  </si>
+  <si>
+    <t>0.347+/-0.019</t>
+  </si>
+  <si>
+    <t>0.353</t>
+  </si>
+  <si>
+    <t>0.743+/-0.006</t>
+  </si>
+  <si>
+    <t>0.666+/-0.0</t>
+  </si>
+  <si>
+    <t>0.729+/-0.04</t>
+  </si>
+  <si>
+    <t>0.387+/-0.069</t>
+  </si>
+  <si>
+    <t>0.428</t>
+  </si>
+  <si>
+    <t>0.27+/-0.046</t>
+  </si>
+  <si>
+    <t>0.144+/-0.039</t>
+  </si>
+  <si>
+    <t>0.145</t>
+  </si>
+  <si>
+    <t>4.174+/-0.711</t>
+  </si>
+  <si>
+    <t>0.774+/-0.012</t>
+  </si>
+  <si>
+    <t>0.654+/-0.0</t>
+  </si>
+  <si>
+    <t>0.664</t>
+  </si>
+  <si>
+    <t>0.829+/-0.041</t>
+  </si>
+  <si>
+    <t>0.349+/-0.032</t>
+  </si>
+  <si>
+    <t>0.336+/-0.043</t>
+  </si>
+  <si>
+    <t>0.141+/-0.022</t>
+  </si>
+  <si>
+    <t>0.168</t>
+  </si>
+  <si>
+    <t>0.092+/-0.007</t>
+  </si>
+  <si>
+    <t>0.751+/-0.009</t>
+  </si>
+  <si>
+    <t>0.664+/-0.0</t>
   </si>
   <si>
     <t>0.67</t>
   </si>
   <si>
-    <t>0.246+/-0.005</t>
-  </si>
-  <si>
-    <t>0.247+/-0.026</t>
-  </si>
-  <si>
-    <t>0.227</t>
-  </si>
-  <si>
-    <t>0.525+/-0.014</t>
-  </si>
-  <si>
-    <t>0.523+/-0.039</t>
-  </si>
-  <si>
-    <t>0.498</t>
-  </si>
-  <si>
-    <t>0.005+/-0.001</t>
-  </si>
-  <si>
-    <t>0.727+/-0.003</t>
-  </si>
-  <si>
-    <t>0.726+/-0.0</t>
-  </si>
-  <si>
-    <t>0.727</t>
-  </si>
-  <si>
-    <t>0.246+/-0.003</t>
-  </si>
-  <si>
-    <t>0.244+/-0.013</t>
-  </si>
-  <si>
-    <t>0.236</t>
-  </si>
-  <si>
-    <t>0.397+/-0.009</t>
-  </si>
-  <si>
-    <t>0.394+/-0.038</t>
-  </si>
-  <si>
-    <t>0.366</t>
-  </si>
-  <si>
-    <t>0.878+/-0.005</t>
-  </si>
-  <si>
-    <t>0.832+/-0.0</t>
-  </si>
-  <si>
-    <t>0.823</t>
-  </si>
-  <si>
-    <t>0.74+/-0.046</t>
-  </si>
-  <si>
-    <t>0.36+/-0.063</t>
-  </si>
-  <si>
-    <t>0.317</t>
-  </si>
-  <si>
-    <t>0.298+/-0.061</t>
-  </si>
-  <si>
-    <t>0.154+/-0.051</t>
-  </si>
-  <si>
-    <t>0.158</t>
-  </si>
-  <si>
-    <t>2.69+/-0.376</t>
-  </si>
-  <si>
-    <t>0.899+/-0.002</t>
-  </si>
-  <si>
-    <t>0.833+/-0.0</t>
-  </si>
-  <si>
-    <t>0.83</t>
-  </si>
-  <si>
-    <t>0.865+/-0.016</t>
-  </si>
-  <si>
-    <t>0.373+/-0.072</t>
-  </si>
-  <si>
-    <t>0.336</t>
-  </si>
-  <si>
-    <t>0.385+/-0.016</t>
-  </si>
-  <si>
-    <t>0.167+/-0.036</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>0.07+/-0.007</t>
-  </si>
-  <si>
-    <t>0.893+/-0.004</t>
-  </si>
-  <si>
-    <t>0.837+/-0.0</t>
-  </si>
-  <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>0.848+/-0.024</t>
-  </si>
-  <si>
-    <t>0.401+/-0.092</t>
-  </si>
-  <si>
-    <t>0.316</t>
-  </si>
-  <si>
-    <t>0.351+/-0.04</t>
-  </si>
-  <si>
-    <t>0.161+/-0.033</t>
-  </si>
-  <si>
-    <t>0.172</t>
-  </si>
-  <si>
-    <t>0.078+/-0.004</t>
-  </si>
-  <si>
-    <t>0.857+/-0.001</t>
-  </si>
-  <si>
-    <t>0.851</t>
-  </si>
-  <si>
-    <t>0.685+/-0.023</t>
-  </si>
-  <si>
-    <t>0.501+/-0.15</t>
-  </si>
-  <si>
-    <t>0.536</t>
-  </si>
-  <si>
-    <t>0.088+/-0.012</t>
-  </si>
-  <si>
-    <t>0.064+/-0.025</t>
-  </si>
-  <si>
-    <t>0.054</t>
-  </si>
-  <si>
-    <t>8.251+/-0.127</t>
-  </si>
-  <si>
-    <t>0.723+/-0.0</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.999+/-0.0</t>
-  </si>
-  <si>
-    <t>0.702+/-0.0</t>
-  </si>
-  <si>
-    <t>0.706</t>
-  </si>
-  <si>
-    <t>1.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.393+/-0.033</t>
-  </si>
-  <si>
-    <t>0.412</t>
-  </si>
-  <si>
-    <t>0.137+/-0.013</t>
-  </si>
-  <si>
-    <t>0.146</t>
-  </si>
-  <si>
-    <t>0.727+/-0.001</t>
-  </si>
-  <si>
-    <t>0.726</t>
-  </si>
-  <si>
-    <t>0.579+/-0.01</t>
-  </si>
-  <si>
-    <t>0.567+/-0.085</t>
-  </si>
-  <si>
-    <t>0.558</t>
-  </si>
-  <si>
-    <t>0.052+/-0.003</t>
-  </si>
-  <si>
-    <t>0.051+/-0.008</t>
-  </si>
-  <si>
-    <t>0.047</t>
-  </si>
-  <si>
-    <t>0.112+/-0.018</t>
-  </si>
-  <si>
-    <t>0.682+/-0.002</t>
-  </si>
-  <si>
-    <t>0.681+/-0.0</t>
-  </si>
-  <si>
-    <t>0.675</t>
-  </si>
-  <si>
-    <t>0.387+/-0.004</t>
-  </si>
-  <si>
-    <t>0.385+/-0.024</t>
-  </si>
-  <si>
-    <t>0.255+/-0.007</t>
-  </si>
-  <si>
-    <t>0.253+/-0.025</t>
-  </si>
-  <si>
-    <t>0.245</t>
-  </si>
-  <si>
-    <t>0.634+/-0.001</t>
-  </si>
-  <si>
-    <t>0.634+/-0.0</t>
-  </si>
-  <si>
-    <t>0.641</t>
-  </si>
-  <si>
-    <t>0.345+/-0.001</t>
-  </si>
-  <si>
-    <t>0.346+/-0.022</t>
-  </si>
-  <si>
-    <t>0.359</t>
-  </si>
-  <si>
-    <t>0.356+/-0.005</t>
-  </si>
-  <si>
-    <t>0.357+/-0.018</t>
-  </si>
-  <si>
-    <t>0.377</t>
-  </si>
-  <si>
-    <t>0.006+/-0.0</t>
-  </si>
-  <si>
-    <t>0.771+/-0.01</t>
-  </si>
-  <si>
-    <t>0.693+/-0.0</t>
-  </si>
-  <si>
-    <t>0.719</t>
-  </si>
-  <si>
-    <t>0.726+/-0.057</t>
-  </si>
-  <si>
-    <t>0.363+/-0.061</t>
-  </si>
-  <si>
-    <t>0.469</t>
-  </si>
-  <si>
-    <t>0.281+/-0.035</t>
-  </si>
-  <si>
-    <t>0.144+/-0.035</t>
-  </si>
-  <si>
-    <t>0.103</t>
-  </si>
-  <si>
-    <t>2.85+/-0.697</t>
-  </si>
-  <si>
-    <t>0.802+/-0.006</t>
-  </si>
-  <si>
-    <t>0.686+/-0.0</t>
-  </si>
-  <si>
-    <t>0.702</t>
-  </si>
-  <si>
-    <t>0.856+/-0.026</t>
-  </si>
-  <si>
-    <t>0.33+/-0.061</t>
-  </si>
-  <si>
-    <t>0.399</t>
-  </si>
-  <si>
-    <t>0.343+/-0.033</t>
-  </si>
-  <si>
-    <t>0.139+/-0.04</t>
-  </si>
-  <si>
-    <t>0.153</t>
-  </si>
-  <si>
-    <t>0.067+/-0.006</t>
-  </si>
-  <si>
-    <t>0.788+/-0.008</t>
-  </si>
-  <si>
-    <t>0.701+/-0.0</t>
-  </si>
-  <si>
-    <t>0.697</t>
-  </si>
-  <si>
-    <t>0.827+/-0.041</t>
-  </si>
-  <si>
-    <t>0.381+/-0.079</t>
-  </si>
-  <si>
-    <t>0.296+/-0.024</t>
-  </si>
-  <si>
-    <t>0.14+/-0.045</t>
-  </si>
-  <si>
-    <t>0.081+/-0.004</t>
-  </si>
-  <si>
-    <t>0.737+/-0.001</t>
-  </si>
-  <si>
-    <t>0.725+/-0.0</t>
-  </si>
-  <si>
-    <t>0.817+/-0.012</t>
-  </si>
-  <si>
-    <t>0.566+/-0.12</t>
-  </si>
-  <si>
-    <t>0.481</t>
-  </si>
-  <si>
-    <t>0.065+/-0.005</t>
-  </si>
-  <si>
-    <t>0.039+/-0.012</t>
-  </si>
-  <si>
-    <t>0.025</t>
-  </si>
-  <si>
-    <t>14.239+/-1.136</t>
-  </si>
-  <si>
-    <t>0.692+/-0.0</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.665+/-0.0</t>
-  </si>
-  <si>
-    <t>0.666</t>
-  </si>
-  <si>
-    <t>0.396+/-0.036</t>
-  </si>
-  <si>
-    <t>0.378</t>
-  </si>
-  <si>
-    <t>0.996+/-0.0</t>
-  </si>
-  <si>
-    <t>0.16+/-0.012</t>
+    <t>0.785+/-0.055</t>
+  </si>
+  <si>
+    <t>0.372+/-0.046</t>
+  </si>
+  <si>
+    <t>0.392</t>
+  </si>
+  <si>
+    <t>0.269+/-0.035</t>
+  </si>
+  <si>
+    <t>0.131+/-0.021</t>
   </si>
   <si>
     <t>0.129</t>
   </si>
   <si>
-    <t>0.003+/-0.0</t>
-  </si>
-  <si>
-    <t>0.697+/-0.0</t>
-  </si>
-  <si>
-    <t>0.695+/-0.0</t>
-  </si>
-  <si>
-    <t>0.696</t>
-  </si>
-  <si>
-    <t>0.615+/-0.009</t>
-  </si>
-  <si>
-    <t>0.585+/-0.122</t>
-  </si>
-  <si>
-    <t>0.581</t>
-  </si>
-  <si>
-    <t>0.041+/-0.003</t>
-  </si>
-  <si>
-    <t>0.039+/-0.013</t>
-  </si>
-  <si>
-    <t>0.044</t>
-  </si>
-  <si>
-    <t>0.115+/-0.034</t>
-  </si>
-  <si>
-    <t>0.648+/-0.003</t>
-  </si>
-  <si>
-    <t>0.647+/-0.0</t>
-  </si>
-  <si>
-    <t>0.647</t>
-  </si>
-  <si>
-    <t>0.385+/-0.031</t>
-  </si>
-  <si>
-    <t>0.389</t>
-  </si>
-  <si>
-    <t>0.245+/-0.007</t>
-  </si>
-  <si>
-    <t>0.245+/-0.028</t>
-  </si>
-  <si>
-    <t>0.258</t>
-  </si>
-  <si>
-    <t>0.616+/-0.001</t>
-  </si>
-  <si>
-    <t>0.614+/-0.0</t>
-  </si>
-  <si>
-    <t>0.622</t>
-  </si>
-  <si>
-    <t>0.37+/-0.002</t>
-  </si>
-  <si>
-    <t>0.368+/-0.018</t>
-  </si>
-  <si>
-    <t>0.379</t>
-  </si>
-  <si>
-    <t>0.353+/-0.004</t>
-  </si>
-  <si>
-    <t>0.351+/-0.02</t>
-  </si>
-  <si>
-    <t>0.356</t>
-  </si>
-  <si>
-    <t>0.744+/-0.009</t>
-  </si>
-  <si>
-    <t>0.666+/-0.0</t>
-  </si>
-  <si>
-    <t>0.687</t>
-  </si>
-  <si>
-    <t>0.726+/-0.051</t>
-  </si>
-  <si>
-    <t>0.403+/-0.041</t>
-  </si>
-  <si>
-    <t>0.464</t>
-  </si>
-  <si>
-    <t>0.281+/-0.061</t>
-  </si>
-  <si>
-    <t>0.158+/-0.04</t>
-  </si>
-  <si>
-    <t>0.113</t>
-  </si>
-  <si>
-    <t>2.642+/-0.469</t>
-  </si>
-  <si>
-    <t>0.773+/-0.012</t>
-  </si>
-  <si>
-    <t>0.653+/-0.0</t>
-  </si>
-  <si>
-    <t>0.663</t>
-  </si>
-  <si>
-    <t>0.812+/-0.039</t>
-  </si>
-  <si>
-    <t>0.354+/-0.032</t>
-  </si>
-  <si>
-    <t>0.382</t>
-  </si>
-  <si>
-    <t>0.343+/-0.037</t>
-  </si>
-  <si>
-    <t>0.152+/-0.02</t>
-  </si>
-  <si>
-    <t>0.749+/-0.009</t>
-  </si>
-  <si>
-    <t>0.67+/-0.0</t>
-  </si>
-  <si>
-    <t>0.778+/-0.052</t>
-  </si>
-  <si>
-    <t>0.4+/-0.054</t>
-  </si>
-  <si>
-    <t>0.398</t>
-  </si>
-  <si>
-    <t>0.262+/-0.03</t>
-  </si>
-  <si>
-    <t>0.14+/-0.026</t>
-  </si>
-  <si>
-    <t>0.115</t>
-  </si>
-  <si>
-    <t>0.083+/-0.003</t>
-  </si>
-  <si>
     <t>0.704+/-0.001</t>
   </si>
   <si>
     <t>0.696+/-0.0</t>
   </si>
   <si>
-    <t>0.695</t>
-  </si>
-  <si>
-    <t>0.869+/-0.016</t>
-  </si>
-  <si>
-    <t>0.664+/-0.116</t>
-  </si>
-  <si>
-    <t>0.609</t>
+    <t>0.694</t>
+  </si>
+  <si>
+    <t>0.869+/-0.017</t>
+  </si>
+  <si>
+    <t>0.667+/-0.107</t>
+  </si>
+  <si>
+    <t>0.565</t>
   </si>
   <si>
     <t>0.045+/-0.002</t>
@@ -994,10 +994,10 @@
     <t>0.03+/-0.009</t>
   </si>
   <si>
-    <t>0.024</t>
-  </si>
-  <si>
-    <t>14.422+/-0.149</t>
+    <t>0.023</t>
+  </si>
+  <si>
+    <t>20.753+/-1.621</t>
   </si>
 </sst>
 </file>
@@ -1398,28 +1398,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1430,28 +1430,28 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="J3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1462,28 +1462,28 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1494,28 +1494,28 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1526,28 +1526,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1558,28 +1558,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1590,28 +1590,28 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1622,28 +1622,28 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1654,28 +1654,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1683,31 +1683,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1757,31 +1757,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1789,31 +1789,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J3" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1821,31 +1821,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H4" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="I4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J4" t="s">
-        <v>171</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1856,28 +1856,28 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1888,28 +1888,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1920,28 +1920,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J7" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1952,25 +1952,25 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J8" t="s">
         <v>175</v>
@@ -1984,25 +1984,25 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J9" t="s">
         <v>176</v>
@@ -2016,25 +2016,25 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J10" t="s">
         <v>177</v>
@@ -2048,25 +2048,25 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="G11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J11" t="s">
         <v>178</v>
@@ -2128,22 +2128,22 @@
         <v>189</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2157,25 +2157,25 @@
         <v>182</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="E3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2189,22 +2189,22 @@
         <v>183</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J4" t="s">
         <v>180</v>
@@ -2221,25 +2221,25 @@
         <v>184</v>
       </c>
       <c r="D5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J5" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2253,25 +2253,25 @@
         <v>185</v>
       </c>
       <c r="D6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J6" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2285,25 +2285,25 @@
         <v>186</v>
       </c>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>204</v>
       </c>
       <c r="F7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="J7" t="s">
-        <v>248</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2314,28 +2314,28 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2349,25 +2349,25 @@
         <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2381,25 +2381,25 @@
         <v>188</v>
       </c>
       <c r="D10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F10" t="s">
-        <v>214</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
+        <v>245</v>
       </c>
       <c r="J10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2410,28 +2410,28 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="F11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I11" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="J11" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2481,13 +2481,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C2" t="s">
         <v>181</v>
       </c>
       <c r="D2" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="E2" t="s">
         <v>273</v>
@@ -2499,7 +2499,7 @@
         <v>290</v>
       </c>
       <c r="H2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I2" t="s">
         <v>308</v>
@@ -2513,10 +2513,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D3" t="s">
         <v>264</v>
@@ -2531,7 +2531,7 @@
         <v>291</v>
       </c>
       <c r="H3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I3" t="s">
         <v>309</v>
@@ -2545,10 +2545,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D4" t="s">
         <v>265</v>
@@ -2560,13 +2560,13 @@
         <v>283</v>
       </c>
       <c r="G4" t="s">
-        <v>292</v>
+        <v>201</v>
       </c>
       <c r="H4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>310</v>
       </c>
       <c r="J4" t="s">
         <v>319</v>
@@ -2586,19 +2586,19 @@
         <v>266</v>
       </c>
       <c r="E5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F5" t="s">
         <v>284</v>
       </c>
       <c r="G5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J5" t="s">
         <v>320</v>
@@ -2612,7 +2612,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D6" t="s">
         <v>267</v>
@@ -2624,13 +2624,13 @@
         <v>285</v>
       </c>
       <c r="G6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J6" t="s">
         <v>321</v>
@@ -2644,7 +2644,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D7" t="s">
         <v>268</v>
@@ -2656,13 +2656,13 @@
         <v>286</v>
       </c>
       <c r="G7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H7" t="s">
-        <v>305</v>
+        <v>222</v>
       </c>
       <c r="I7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J7" t="s">
         <v>322</v>
@@ -2676,7 +2676,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D8" t="s">
         <v>269</v>
@@ -2688,13 +2688,13 @@
         <v>287</v>
       </c>
       <c r="G8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J8" t="s">
         <v>323</v>
@@ -2708,7 +2708,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D9" t="s">
         <v>270</v>
@@ -2720,13 +2720,13 @@
         <v>288</v>
       </c>
       <c r="G9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J9" t="s">
         <v>324</v>
@@ -2740,7 +2740,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D10" t="s">
         <v>271</v>
@@ -2752,13 +2752,13 @@
         <v>289</v>
       </c>
       <c r="G10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>306</v>
       </c>
       <c r="I10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J10" t="s">
         <v>325</v>
@@ -2772,25 +2772,25 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>262</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
         <v>272</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H11" t="s">
-        <v>159</v>
+        <v>307</v>
       </c>
       <c r="I11" t="s">
-        <v>316</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s">
         <v>326</v>
